--- a/hasm/Resources/Instructionset with Encoding.xlsx
+++ b/hasm/Resources/Instructionset with Encoding.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Dropbox\LT Project\Architectuur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1114,23 +1114,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1166,23 +1149,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1337,21 +1303,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.26953125" customWidth="1"/>
-    <col min="4" max="7" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="7" width="5.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1338,7 @@
       </c>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1395,7 +1361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -1424,7 +1390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1436,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1465,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
@@ -1528,7 +1494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1569,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
@@ -1632,7 +1598,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1684,7 +1650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1707,7 +1673,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1736,7 +1702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1725,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1788,7 +1754,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>103</v>
       </c>
@@ -1811,7 +1777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -1834,7 +1800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>142</v>
       </c>
@@ -1863,7 +1829,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>200</v>
       </c>
@@ -1892,7 +1858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1909,7 +1875,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1926,7 +1892,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>77</v>
       </c>
@@ -1940,10 +1906,10 @@
         <v>134</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
@@ -1960,7 +1926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1977,7 +1943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -1994,7 +1960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>143</v>
       </c>
@@ -2011,7 +1977,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>144</v>
       </c>
@@ -2028,7 +1994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>113</v>
       </c>
@@ -2045,7 +2011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2068,7 +2034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -2097,7 +2063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -2120,7 +2086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -2149,7 +2115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -2164,7 +2130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
@@ -2187,7 +2153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
@@ -2216,7 +2182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -2233,7 +2199,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
@@ -2250,7 +2216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -2273,7 +2239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2296,7 +2262,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -2319,7 +2285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>162</v>
       </c>
@@ -2342,7 +2308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -2359,7 +2325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>165</v>
       </c>
@@ -2382,7 +2348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>168</v>
       </c>
@@ -2405,7 +2371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>125</v>
       </c>
@@ -2428,7 +2394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>128</v>
       </c>
@@ -2451,7 +2417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>178</v>
       </c>
@@ -2474,7 +2440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>176</v>
       </c>
@@ -2497,7 +2463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>173</v>
       </c>
@@ -2520,7 +2486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
@@ -2543,7 +2509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>180</v>
       </c>
@@ -2566,7 +2532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>184</v>
       </c>
@@ -2589,7 +2555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>186</v>
       </c>
@@ -2612,7 +2578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>187</v>
       </c>
@@ -2635,7 +2601,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>193</v>
       </c>
@@ -2658,7 +2624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>192</v>
       </c>
@@ -2681,7 +2647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>198</v>
       </c>
@@ -2719,14 +2685,14 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2748,7 +2714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2781,7 +2747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>121</v>
       </c>
@@ -2792,7 +2758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>165</v>
       </c>
@@ -2814,7 +2780,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>168</v>
       </c>
@@ -2825,7 +2791,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>125</v>
       </c>
@@ -2836,7 +2802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>128</v>
       </c>
@@ -2847,7 +2813,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>89</v>
       </c>
@@ -2856,7 +2822,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>130</v>
       </c>
@@ -2867,7 +2833,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -2878,7 +2844,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>176</v>
       </c>
@@ -2889,7 +2855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>192</v>
       </c>
@@ -2900,7 +2866,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>184</v>
       </c>
@@ -2911,7 +2877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>173</v>
       </c>
@@ -2922,7 +2888,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>180</v>
       </c>
@@ -2933,7 +2899,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>178</v>
       </c>
@@ -2944,7 +2910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
@@ -2955,7 +2921,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>187</v>
       </c>
@@ -2966,7 +2932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>54</v>
       </c>
@@ -2977,7 +2943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>106</v>
       </c>
@@ -2988,7 +2954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>142</v>
       </c>
@@ -2999,7 +2965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>200</v>
       </c>
@@ -3010,7 +2976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>103</v>
       </c>
@@ -3021,7 +2987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
@@ -3032,7 +2998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>144</v>
       </c>
@@ -3043,7 +3009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
@@ -3054,7 +3020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
@@ -3065,7 +3031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>143</v>
       </c>
@@ -3076,7 +3042,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -3087,7 +3053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>68</v>
       </c>
@@ -3098,7 +3064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>65</v>
       </c>
@@ -3109,7 +3075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>94</v>
       </c>
@@ -3120,7 +3086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -3131,7 +3097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>60</v>
       </c>
@@ -3142,7 +3108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>139</v>
       </c>
@@ -3153,7 +3119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -3164,7 +3130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>198</v>
       </c>
@@ -3175,7 +3141,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>30</v>
       </c>
@@ -3186,7 +3152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>33</v>
       </c>
@@ -3197,7 +3163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>80</v>
       </c>
@@ -3208,7 +3174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>100</v>
       </c>
@@ -3219,7 +3185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>77</v>
       </c>
@@ -3230,7 +3196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>97</v>
       </c>
@@ -3241,7 +3207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>162</v>
       </c>
@@ -3252,7 +3218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>57</v>
       </c>
@@ -3263,7 +3229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -3274,7 +3240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>17</v>
       </c>
@@ -3285,7 +3251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>20</v>
       </c>
@@ -3296,7 +3262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>136</v>
       </c>
@@ -3307,7 +3273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>83</v>
       </c>
@@ -3318,7 +3284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>86</v>
       </c>
@@ -3329,7 +3295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>74</v>
       </c>
@@ -3340,7 +3306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>71</v>
       </c>
@@ -3351,7 +3317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>14</v>
       </c>
@@ -3362,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>113</v>
       </c>

--- a/hasm/Resources/Instructionset with Encoding.xlsx
+++ b/hasm/Resources/Instructionset with Encoding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Dropbox\LT Project\Architectuur\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="208">
   <si>
     <t>Instruction</t>
   </si>
@@ -517,15 +517,9 @@
     <t>1011</t>
   </si>
   <si>
-    <t>drrr</t>
-  </si>
-  <si>
     <t>00dd</t>
   </si>
   <si>
-    <t>01dd</t>
-  </si>
-  <si>
     <t>10dd</t>
   </si>
   <si>
@@ -535,12 +529,6 @@
     <t>1101</t>
   </si>
   <si>
-    <t>00ss</t>
-  </si>
-  <si>
-    <t>10ss</t>
-  </si>
-  <si>
     <t>0110</t>
   </si>
   <si>
@@ -659,6 +647,39 @@
   </si>
   <si>
     <t>CMIC REG, IMM8</t>
+  </si>
+  <si>
+    <t>DST &lt;- MEM[PAIR + IMM6]</t>
+  </si>
+  <si>
+    <t>MEM[PAIR + IMM6] &lt;- SRC</t>
+  </si>
+  <si>
+    <t>DST &lt;- PROG[PAIR + IMM6]</t>
+  </si>
+  <si>
+    <t>1sss</t>
+  </si>
+  <si>
+    <t>0sss</t>
+  </si>
+  <si>
+    <t>dpkk</t>
+  </si>
+  <si>
+    <t>LDD DST, PAIR + IMM6</t>
+  </si>
+  <si>
+    <t>STD PAIR + IMM6, SRC</t>
+  </si>
+  <si>
+    <t>01rr</t>
+  </si>
+  <si>
+    <t>rpkk</t>
+  </si>
+  <si>
+    <t>LPD DST, PAIR, IMM6</t>
   </si>
 </sst>
 </file>
@@ -1303,18 +1324,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
-    <col min="4" max="7" width="5.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="7" width="4.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,7 +1393,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>118</v>
@@ -1447,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>119</v>
@@ -1476,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>134</v>
@@ -1551,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>122</v>
@@ -1580,7 +1601,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>135</v>
@@ -1632,7 +1653,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>122</v>
@@ -1684,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>137</v>
@@ -1736,7 +1757,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>138</v>
@@ -1811,7 +1832,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>140</v>
@@ -1831,7 +1852,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1840,7 +1861,7 @@
         <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>141</v>
@@ -2013,22 +2034,22 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>120</v>
@@ -2065,22 +2086,22 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>120</v>
@@ -2124,7 +2145,7 @@
       </c>
       <c r="C35" s="9"/>
       <c r="H35" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>118</v>
@@ -2132,22 +2153,22 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>120</v>
@@ -2193,10 +2214,10 @@
         <v>99</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2210,10 +2231,10 @@
         <v>102</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,10 +2308,10 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>50</v>
@@ -2319,7 +2340,7 @@
         <v>59</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>150</v>
@@ -2327,19 +2348,19 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>120</v>
@@ -2350,19 +2371,19 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>120</v>
@@ -2376,7 +2397,7 @@
         <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>126</v>
@@ -2419,10 +2440,10 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>126</v>
@@ -2442,10 +2463,10 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>129</v>
@@ -2465,13 +2486,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>127</v>
@@ -2511,13 +2532,13 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>127</v>
@@ -2534,13 +2555,13 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>127</v>
@@ -2557,19 +2578,19 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>120</v>
@@ -2580,13 +2601,13 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>127</v>
@@ -2603,13 +2624,13 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>127</v>
@@ -2626,13 +2647,13 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>127</v>
@@ -2649,13 +2670,13 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>141</v>
@@ -2681,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,24 +2792,24 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2796,7 +2817,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>126</v>
@@ -2835,21 +2856,21 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>129</v>
@@ -2857,54 +2878,54 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>126</v>
@@ -2912,24 +2933,24 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,7 +2988,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -3132,13 +3153,13 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3209,10 +3230,10 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>50</v>

--- a/hasm/Resources/Instructionset with Encoding.xlsx
+++ b/hasm/Resources/Instructionset with Encoding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Dropbox\LT Project\Architectuur\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -679,7 +679,7 @@
     <t>rpkk</t>
   </si>
   <si>
-    <t>LPD DST, PAIR, IMM6</t>
+    <t>LPD DST, PAIR + IMM6</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hasm/Resources/Instructionset with Encoding.xlsx
+++ b/hasm/Resources/Instructionset with Encoding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Dropbox\LT Project\Architectuur\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full with Encoding" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="215">
   <si>
     <t>Instruction</t>
   </si>
@@ -262,15 +262,9 @@
     <t>DST &lt;- MEM[IMM12]</t>
   </si>
   <si>
-    <t>LDD DST, DIS, IMM4</t>
-  </si>
-  <si>
     <t>Load with displacement</t>
   </si>
   <si>
-    <t>DST &lt;- MEM[IMM4 &lt;&lt; 8 + DIS]</t>
-  </si>
-  <si>
     <t>STM IMM12, SRC</t>
   </si>
   <si>
@@ -280,15 +274,9 @@
     <t>MEM[IMM12] &lt;- SRC</t>
   </si>
   <si>
-    <t>STD REG, IMM4, SRC</t>
-  </si>
-  <si>
     <t>Store with displacement</t>
   </si>
   <si>
-    <t>MEM[IMM4 &lt;&lt; 8 + DIS] &lt;- SRC</t>
-  </si>
-  <si>
     <t>PUSH SRC</t>
   </si>
   <si>
@@ -340,15 +328,9 @@
     <t>DST &lt;- PROG[IMM12]</t>
   </si>
   <si>
-    <t>LPD DST, DIS, IMM4</t>
-  </si>
-  <si>
     <t>Load Displacement from Program</t>
   </si>
   <si>
-    <t>DST &lt;- PROG[IMM4 &lt;&lt; 8 + DIS]</t>
-  </si>
-  <si>
     <t>PUSHS SPEC</t>
   </si>
   <si>
@@ -680,6 +662,45 @@
   </si>
   <si>
     <t>LPD DST, PAIR + IMM6</t>
+  </si>
+  <si>
+    <t>MOVS SPC1, SPC2</t>
+  </si>
+  <si>
+    <t>Copy Special Register</t>
+  </si>
+  <si>
+    <t>SPC1 &lt;- SPC2</t>
+  </si>
+  <si>
+    <t>1DDD</t>
+  </si>
+  <si>
+    <t>RRR0</t>
+  </si>
+  <si>
+    <t>ADIS SPC, IMM12</t>
+  </si>
+  <si>
+    <t>Add an Immediate to Special</t>
+  </si>
+  <si>
+    <t>SPC &lt;- SPC + IMM12</t>
+  </si>
+  <si>
+    <t>Subtract an Immediate from Special</t>
+  </si>
+  <si>
+    <t>SPC &lt;- SPC – IMM12</t>
+  </si>
+  <si>
+    <t>MVIS SPC, IMM12</t>
+  </si>
+  <si>
+    <t>Set Special to Immediate</t>
+  </si>
+  <si>
+    <t>SRC &lt;- IMM12</t>
   </si>
 </sst>
 </file>
@@ -922,6 +943,24 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -995,6 +1034,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="medium">
           <color rgb="FFDBDBDB"/>
         </left>
@@ -1005,31 +1051,6 @@
           <color rgb="FFDBDBDB"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1045,17 +1066,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel1" displayName="Tabel1" ref="A1:C59" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C59"/>
-  <sortState ref="A2:C59">
-    <sortCondition ref="A1:A59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C63" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:C63"/>
+  <sortState ref="A2:C63">
+    <sortCondition ref="A1:A63"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Instruction" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" name="Semantic" dataDxfId="0"/>
+    <tableColumn id="1" name="Instruction" dataDxfId="3"/>
+    <tableColumn id="2" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" name="Semantic" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1322,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,13 +1370,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18"/>
       <c r="H1" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I1" s="17"/>
     </row>
@@ -1370,21 +1391,21 @@
         <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>63</v>
@@ -1393,22 +1414,22 @@
         <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,16 +1443,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1445,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,27 +1489,27 @@
         <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1497,22 +1518,22 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1526,16 +1547,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,16 +1570,16 @@
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,27 +1593,27 @@
         <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -1601,22 +1622,22 @@
         <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,16 +1651,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,22 +1674,22 @@
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1682,16 +1703,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,22 +1726,22 @@
         <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1734,16 +1755,16 @@
         <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1757,126 +1778,126 @@
         <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,10 +1911,10 @@
         <v>44</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1907,152 +1928,152 @@
         <v>47</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2066,175 +2087,175 @@
         <v>67</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="9"/>
       <c r="H35" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,16 +2269,16 @@
         <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2271,16 +2292,16 @@
         <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2294,39 +2315,39 @@
         <v>56</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2340,349 +2361,459 @@
         <v>59</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>141</v>
+        <v>204</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,7 +2901,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2781,583 +2912,627 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>133</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>115</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/hasm/Resources/Instructionset with Encoding.xlsx
+++ b/hasm/Resources/Instructionset with Encoding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Dropbox\LT Project\Architectuur\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Full with Encoding" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="216">
   <si>
     <t>Instruction</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>SRC &lt;- IMM12</t>
+  </si>
+  <si>
+    <t>SBIS SPC, IMM12</t>
   </si>
 </sst>
 </file>
@@ -943,24 +946,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1034,13 +1019,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFDBDBDB"/>
         </left>
@@ -1051,6 +1029,31 @@
           <color rgb="FFDBDBDB"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1066,15 +1069,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C63" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C63"/>
   <sortState ref="A2:C63">
     <sortCondition ref="A1:A63"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Instruction" dataDxfId="3"/>
-    <tableColumn id="2" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" name="Semantic" dataDxfId="1"/>
+    <tableColumn id="1" name="Instruction" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" name="Semantic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1345,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>210</v>
@@ -2833,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
